--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/15/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/15/seed4/result_data_KNN.xlsx
@@ -590,7 +590,7 @@
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.488</v>
+        <v>-7.560999999999998</v>
       </c>
       <c r="E9" t="n">
         <v>17.64</v>
@@ -743,7 +743,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.482000000000001</v>
+        <v>-8.543000000000003</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.286</v>
+        <v>-7.43</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.596</v>
+        <v>-8.599</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.664</v>
+        <v>-7.873</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-6.914</v>
+        <v>-7.205</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1729,7 +1729,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.508</v>
+        <v>-7.806999999999999</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1763,7 +1763,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.032</v>
+        <v>-7.878</v>
       </c>
       <c r="E78" t="n">
         <v>17.28</v>
@@ -1831,7 +1831,7 @@
         <v>-14.08</v>
       </c>
       <c r="D82" t="n">
-        <v>-8.548</v>
+        <v>-8.399000000000001</v>
       </c>
       <c r="E82" t="n">
         <v>16.71</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.483999999999998</v>
+        <v>-8.353999999999999</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -2018,7 +2018,7 @@
         <v>-11.3</v>
       </c>
       <c r="D93" t="n">
-        <v>-7.331999999999999</v>
+        <v>-7.517</v>
       </c>
       <c r="E93" t="n">
         <v>18.32</v>
